--- a/毕业论文设计检查表-v0.1.xlsx
+++ b/毕业论文设计检查表-v0.1.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/koawu/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kdot/Documents/github-repo/24HUNCHO/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4800" yWindow="3460" windowWidth="28800" windowHeight="17540"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="51200" windowHeight="28340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -441,7 +441,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -478,6 +478,14 @@
       <color theme="1"/>
       <name val="等线"/>
       <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="9"/>
+      <name val="等线"/>
+      <family val="2"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
@@ -568,7 +576,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -617,6 +625,18 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -635,16 +655,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -929,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D86"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A23" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="160" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -942,28 +953,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="18" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
+      <c r="B2" s="19"/>
+      <c r="C2" s="19"/>
+      <c r="D2" s="19"/>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="23" t="s">
+      <c r="A3" s="19" t="s">
         <v>74</v>
       </c>
-      <c r="B3" s="23"/>
-      <c r="C3" s="23"/>
-      <c r="D3" s="23"/>
+      <c r="B3" s="19"/>
+      <c r="C3" s="19"/>
+      <c r="D3" s="19"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="4" t="s">
@@ -1083,37 +1094,37 @@
       <c r="D12" s="12"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="16">
+      <c r="A13" s="20">
         <f>A12+1</f>
         <v>9</v>
       </c>
-      <c r="B13" s="24" t="s">
+      <c r="B13" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="13" t="s">
         <v>10</v>
       </c>
-      <c r="D13" s="19"/>
+      <c r="D13" s="23"/>
     </row>
     <row r="14" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A14" s="17"/>
-      <c r="B14" s="24" t="s">
+      <c r="A14" s="21"/>
+      <c r="B14" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C14" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="D14" s="20"/>
+      <c r="D14" s="24"/>
     </row>
     <row r="15" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A15" s="18"/>
+      <c r="A15" s="22"/>
       <c r="B15" s="8" t="s">
         <v>9</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="21"/>
+      <c r="D15" s="25"/>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
@@ -1373,7 +1384,7 @@
       <c r="C35" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="D35" s="9"/>
+      <c r="D35" s="26"/>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A36" s="8">
@@ -1506,27 +1517,27 @@
       <c r="D45" s="12"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A46" s="16">
+      <c r="A46" s="20">
         <f>A45+1</f>
         <v>40</v>
       </c>
-      <c r="B46" s="24" t="s">
+      <c r="B46" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="D46" s="19"/>
+      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:4" ht="30" x14ac:dyDescent="0.2">
-      <c r="A47" s="18"/>
+      <c r="A47" s="22"/>
       <c r="B47" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="D47" s="21"/>
+      <c r="D47" s="25"/>
     </row>
     <row r="48" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A48" s="8">
@@ -1708,7 +1719,7 @@
       <c r="C61" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="D61" s="9"/>
+      <c r="D61" s="12"/>
     </row>
     <row r="62" spans="1:4" ht="30" x14ac:dyDescent="0.2">
       <c r="A62" s="8">
@@ -1724,34 +1735,34 @@
       <c r="D62" s="12"/>
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A63" s="16">
+      <c r="A63" s="20">
         <f t="shared" ref="A63" si="4">A59+1</f>
         <v>53</v>
       </c>
-      <c r="B63" s="24" t="s">
+      <c r="B63" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="D63" s="19"/>
+      <c r="D63" s="23"/>
     </row>
     <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.2">
-      <c r="A64" s="18"/>
+      <c r="A64" s="22"/>
       <c r="B64" s="8" t="s">
         <v>20</v>
       </c>
       <c r="C64" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D64" s="21"/>
+      <c r="D64" s="25"/>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="8">
         <f>A63+1</f>
         <v>54</v>
       </c>
-      <c r="B65" s="24" t="s">
+      <c r="B65" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C65" s="13" t="s">
@@ -1764,7 +1775,7 @@
         <f>A65+1</f>
         <v>55</v>
       </c>
-      <c r="B66" s="24" t="s">
+      <c r="B66" s="16" t="s">
         <v>55</v>
       </c>
       <c r="C66" s="13" t="s">
@@ -1825,37 +1836,37 @@
       <c r="D70" s="9"/>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A71" s="16">
+      <c r="A71" s="20">
         <f t="shared" si="5"/>
         <v>60</v>
       </c>
-      <c r="B71" s="24" t="s">
+      <c r="B71" s="16" t="s">
         <v>80</v>
       </c>
       <c r="C71" s="14" t="s">
         <v>84</v>
       </c>
-      <c r="D71" s="19"/>
+      <c r="D71" s="23"/>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A72" s="17"/>
+      <c r="A72" s="21"/>
       <c r="B72" s="8" t="s">
         <v>81</v>
       </c>
       <c r="C72" s="3" t="s">
         <v>85</v>
       </c>
-      <c r="D72" s="20"/>
+      <c r="D72" s="24"/>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A73" s="18"/>
-      <c r="B73" s="24" t="s">
+      <c r="A73" s="22"/>
+      <c r="B73" s="16" t="s">
         <v>82</v>
       </c>
       <c r="C73" s="14" t="s">
         <v>83</v>
       </c>
-      <c r="D73" s="21"/>
+      <c r="D73" s="25"/>
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A74" s="8">
@@ -1875,13 +1886,13 @@
         <f t="shared" si="6"/>
         <v>61</v>
       </c>
-      <c r="B75" s="24" t="s">
+      <c r="B75" s="16" t="s">
         <v>7</v>
       </c>
       <c r="C75" s="14" t="s">
         <v>87</v>
       </c>
-      <c r="D75" s="25"/>
+      <c r="D75" s="17"/>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A76" s="8">
@@ -1901,7 +1912,7 @@
         <f t="shared" ref="A77:A86" si="7">A76+1</f>
         <v>63</v>
       </c>
-      <c r="B77" s="24" t="s">
+      <c r="B77" s="16" t="s">
         <v>8</v>
       </c>
       <c r="C77" s="14" t="s">
@@ -2028,17 +2039,17 @@
     </row>
   </sheetData>
   <mergeCells count="11">
-    <mergeCell ref="A1:D1"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="A13:A15"/>
-    <mergeCell ref="D13:D15"/>
-    <mergeCell ref="A2:D2"/>
     <mergeCell ref="A71:A73"/>
     <mergeCell ref="D71:D73"/>
     <mergeCell ref="A63:A64"/>
     <mergeCell ref="D63:D64"/>
     <mergeCell ref="A46:A47"/>
     <mergeCell ref="D46:D47"/>
+    <mergeCell ref="A1:D1"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="D13:D15"/>
+    <mergeCell ref="A2:D2"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
